--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/sale_order_line.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/sale_order_line.xlsx
@@ -642,21 +642,22 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/sale_order_line.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/sale_order_line.xlsx
@@ -642,15 +642,14 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
